--- a/Story 1/NST-EST2024-POP.xlsx
+++ b/Story 1/NST-EST2024-POP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Shared\ESTIMATES\V2024\Team Specific Material\Dissemination\Products\National-State-Commonwealth Totals\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spsmailcuny-my.sharepoint.com/personal/keith_denivo49_spsmail_cuny_edu/Documents/CUNY SPS MS DATA SCIENCE/Data 608/data 608 assignments/Data-608/Story 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAECB49-E100-4367-A166-9A15AE599E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="12490" yWindow="1365" windowWidth="5525" windowHeight="9385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NST-EST2024-POP" sheetId="1" r:id="rId1"/>
@@ -1137,6 +1137,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
@@ -1177,40 +1211,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1521,85 +1521,85 @@
   <dimension ref="A1:AJ68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="G9" sqref="A2:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="1" customWidth="1"/>
-    <col min="2" max="7" width="15.5703125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="28.54296875" style="1" customWidth="1"/>
+    <col min="2" max="7" width="15.54296875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:36" ht="2.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:36" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:36" ht="30.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="3" spans="1:36" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="3" spans="1:36" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-    </row>
-    <row r="4" spans="1:36" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="17"/>
+    </row>
+    <row r="4" spans="1:36" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="3">
         <v>2020</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>340110988</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>57832935</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>69596584</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>132665693</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" s="8" t="s">
         <v>4</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>80015776</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>5157699</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>740133</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>7582384</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>3088354</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>39431263</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>5957493</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A16" s="10" t="s">
         <v>15</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>3675069</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A17" s="10" t="s">
         <v>16</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>1051917</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A18" s="10" t="s">
         <v>17</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>702250</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A19" s="10" t="s">
         <v>18</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>23372215</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A20" s="10" t="s">
         <v>19</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>11180878</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A21" s="10" t="s">
         <v>20</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>1446146</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A22" s="10" t="s">
         <v>21</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>2001619</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A23" s="10" t="s">
         <v>22</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>12710158</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A24" s="10" t="s">
         <v>23</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>6924275</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A25" s="10" t="s">
         <v>24</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>3241488</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A26" s="10" t="s">
         <v>25</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>2970606</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A27" s="10" t="s">
         <v>26</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>4588372</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A28" s="10" t="s">
         <v>27</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>4597740</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A29" s="10" t="s">
         <v>28</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>1405012</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A30" s="10" t="s">
         <v>29</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>6263220</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A31" s="10" t="s">
         <v>30</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>7136171</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A32" s="10" t="s">
         <v>31</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>10140459</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A33" s="10" t="s">
         <v>32</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>5793151</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A34" s="10" t="s">
         <v>33</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>2943045</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A35" s="10" t="s">
         <v>34</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>6245466</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A36" s="10" t="s">
         <v>35</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>1137233</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A37" s="10" t="s">
         <v>36</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>2005465</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A38" s="10" t="s">
         <v>37</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>3267467</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A39" s="10" t="s">
         <v>38</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>1409032</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A40" s="10" t="s">
         <v>39</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>9500851</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A41" s="10" t="s">
         <v>40</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>2130256</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A42" s="10" t="s">
         <v>41</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>19867248</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A43" s="10" t="s">
         <v>42</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>11046024</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A44" s="10" t="s">
         <v>43</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>796568</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A45" s="10" t="s">
         <v>44</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>11883304</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A46" s="10" t="s">
         <v>45</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>4095393</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A47" s="10" t="s">
         <v>46</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>4272371</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A48" s="10" t="s">
         <v>47</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>13078751</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A49" s="10" t="s">
         <v>48</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>1112308</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A50" s="10" t="s">
         <v>49</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>5478831</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A51" s="10" t="s">
         <v>50</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>924669</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A52" s="10" t="s">
         <v>51</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>7227750</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A53" s="10" t="s">
         <v>52</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>31290831</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A54" s="10" t="s">
         <v>53</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>3503613</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A55" s="10" t="s">
         <v>54</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>648493</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A56" s="10" t="s">
         <v>55</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>8811195</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A57" s="10" t="s">
         <v>56</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>7958180</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A58" s="10" t="s">
         <v>57</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>1769979</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A59" s="10" t="s">
         <v>58</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>5960975</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A60" s="10" t="s">
         <v>59</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>587618</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A61" s="11"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2913,7 +2913,7 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A62" s="13" t="s">
         <v>61</v>
       </c>
@@ -2936,85 +2936,85 @@
         <v>3203295</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="16" t="s">
+    <row r="63" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A63" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="18"/>
-    </row>
-    <row r="64" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="27" t="s">
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="32"/>
+    </row>
+    <row r="64" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A64" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="29"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="30" t="s">
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="20"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A65" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="32"/>
-    </row>
-    <row r="66" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="33" t="s">
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="23"/>
+    </row>
+    <row r="66" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A66" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="35"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="33" t="s">
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="26"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A67" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="35"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="36" t="s">
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="26"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A68" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B68" s="37"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="38"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A64:G64"/>
-    <mergeCell ref="A65:G65"/>
-    <mergeCell ref="A66:G66"/>
-    <mergeCell ref="A67:G67"/>
-    <mergeCell ref="A68:G68"/>
     <mergeCell ref="A63:G63"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="A65:G65"/>
+    <mergeCell ref="A66:G66"/>
+    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="A68:G68"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
